--- a/biology/Botanique/Lepidium_flavum/Lepidium_flavum.xlsx
+++ b/biology/Botanique/Lepidium_flavum/Lepidium_flavum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passerage jaune
 Lepidium flavum, la passerage jaune, est une espèce de plante à fleurs de la famille des Brassicaceae, originaire du sud-ouest des États-Unis et du nord du Mexique.
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante rampante ne dépasse guère 5 cm de hauteur, mais ses tiges fragiles peuvent atteindre 10 à 40 cm de longueur[1]. Les feuilles, un peu charnues, mesurent de 2 à 5 cm de longueur ; les plus grandes sont pennatifides[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juin.
-L'inflorescence est une grappe dense et courte de fleurs jaunes, qui sont les seules parties de la plante tournées vers le haut. Chaque fleur possède 4 pétales d'environ 3 mm de longueur. Le fruit est une capsule plate et ovale d'environ 3 mm de longueur[1]. Les minuscules graines de cette plante ont un goût poivré d'où son nom anglais de "peppergrass" ou "pepperweed"[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante rampante ne dépasse guère 5 cm de hauteur, mais ses tiges fragiles peuvent atteindre 10 à 40 cm de longueur. Les feuilles, un peu charnues, mesurent de 2 à 5 cm de longueur ; les plus grandes sont pennatifides.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juin.
+L'inflorescence est une grappe dense et courte de fleurs jaunes, qui sont les seules parties de la plante tournées vers le haut. Chaque fleur possède 4 pétales d'environ 3 mm de longueur. Le fruit est une capsule plate et ovale d'environ 3 mm de longueur. Les minuscules graines de cette plante ont un goût poivré d'où son nom anglais de "peppergrass" ou "pepperweed".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lepidium_flavum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lepidium_flavum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidium flavum pousse sur les replats des déserts du sud-ouest des États-Unis et du nord du Mexique. Son aire de répartition réduite s'étend au nord du sud de la Californie jusqu'au sud du Nevada, et au sud jusqu'à la Basse-Californie.
 </t>
